--- a/data/outputs/OR_elsevier/36.xlsx
+++ b/data/outputs/OR_elsevier/36.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS53"/>
+  <dimension ref="A1:BU53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84923117126</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1164,6 +1180,12 @@
           <t>2-s2.0-84924677758</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1379,6 +1401,12 @@
           <t>2-s2.0-84937933755</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1598,6 +1626,12 @@
           <t>2-s2.0-84937884955</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1809,6 +1843,12 @@
           <t>2-s2.0-84923068807</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2020,6 +2060,12 @@
           <t>2-s2.0-84924660882</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2239,6 +2285,12 @@
           <t>2-s2.0-84923106650</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2458,6 +2510,12 @@
           <t>2-s2.0-84924731761</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2681,6 +2739,12 @@
           <t>2-s2.0-84924708456</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2900,6 +2964,12 @@
           <t>2-s2.0-84944786665</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3119,6 +3189,12 @@
           <t>2-s2.0-84947069465</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3334,6 +3410,12 @@
           <t>2-s2.0-84937867110</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3549,6 +3631,12 @@
           <t>2-s2.0-84923081124</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3764,6 +3852,12 @@
           <t>2-s2.0-84937882605</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3981,6 +4075,12 @@
           <t>2-s2.0-84924706397</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4199,6 +4299,12 @@
         <is>
           <t>2-s2.0-84923108539</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -4407,6 +4513,12 @@
           <t>2-s2.0-84924706396</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4624,6 +4736,12 @@
           <t>2-s2.0-84923115982</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4839,6 +4957,12 @@
           <t>2-s2.0-84947052833</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5058,6 +5182,12 @@
           <t>2-s2.0-84937958322</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5272,6 +5402,12 @@
         <is>
           <t>2-s2.0-84937946486</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -5482,6 +5618,12 @@
           <t>2-s2.0-84937881250</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5696,6 +5838,12 @@
         <is>
           <t>2-s2.0-84924674736</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -5904,6 +6052,12 @@
           <t>2-s2.0-84923096632</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6121,6 +6275,12 @@
           <t>2-s2.0-84923096540</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6340,6 +6500,12 @@
           <t>2-s2.0-84947062661</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6551,6 +6717,12 @@
           <t>2-s2.0-84947079288</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6770,6 +6942,12 @@
           <t>2-s2.0-84937903612</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6985,6 +7163,12 @@
           <t>2-s2.0-84937880632</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7204,6 +7388,12 @@
           <t>2-s2.0-84947062114</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7421,6 +7611,12 @@
           <t>2-s2.0-84947052196</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7637,6 +7833,12 @@
         <is>
           <t>2-s2.0-84947056644</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -7845,6 +8047,12 @@
           <t>2-s2.0-84947063848</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8058,6 +8266,12 @@
           <t>2-s2.0-84937871492</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8275,6 +8489,12 @@
           <t>2-s2.0-84924735861</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8492,6 +8712,12 @@
           <t>2-s2.0-84947075289</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8704,6 +8930,12 @@
         <is>
           <t>2-s2.0-84937962096</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -8912,6 +9144,12 @@
           <t>2-s2.0-84937843061</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9137,6 +9375,12 @@
           <t>2-s2.0-84924668333</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9352,6 +9596,12 @@
           <t>2-s2.0-84924721948</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9575,6 +9825,12 @@
           <t>2-s2.0-84947080743</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9790,6 +10046,12 @@
           <t>2-s2.0-84947050901</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10005,6 +10267,12 @@
           <t>2-s2.0-84940687396</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10220,6 +10488,12 @@
           <t>2-s2.0-84937845676</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10435,6 +10709,12 @@
           <t>2-s2.0-84924712151</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10652,6 +10932,12 @@
           <t>2-s2.0-84924668426</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10877,6 +11163,12 @@
           <t>2-s2.0-84923095362</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11091,6 +11383,12 @@
         <is>
           <t>2-s2.0-84947067849</t>
         </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -11301,6 +11599,12 @@
           <t>2-s2.0-84947061945</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11515,6 +11819,12 @@
         <is>
           <t>2-s2.0-84947059511</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -11723,6 +12033,12 @@
           <t>2-s2.0-84924710040</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11940,6 +12256,12 @@
           <t>2-s2.0-84923108545</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
